--- a/一个小插曲关于excel和py的/new_excel.xlsx
+++ b/一个小插曲关于excel和py的/new_excel.xlsx
@@ -2,27 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="qq" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,21 +419,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A2:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="19.375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="23.25" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Hello, openpyxl !</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
@@ -448,24 +451,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>这是新插入的</t>
+          <t>这是新插入的row</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>坐标是 3*2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>坐标是 3*3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>坐标是 3*4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>坐标是 3*2</t>
+          <t>坐标是 4*2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>坐标是 3*3</t>
+          <t>坐标是 4*3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>坐标是 3*4</t>
+          <t>坐标是 4*4</t>
         </is>
       </c>
     </row>
@@ -486,70 +504,91 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="6">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>G6</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>I6</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="F7" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>I6</t>
+          <t>I7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="F8" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>I7</t>
+          <t>I8</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="F9" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>G8</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>H8</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>I8</t>
+          <t>I9</t>
         </is>
       </c>
     </row>
@@ -575,7 +614,15 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hello, openpyxl !</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>